--- a/output/XP_31392557000149.xlsx
+++ b/output/XP_31392557000149.xlsx
@@ -592,10 +592,10 @@
         <v>44165</v>
       </c>
       <c r="B19">
-        <v>0.1224403199999999</v>
+        <v>0.12444034</v>
       </c>
       <c r="C19">
-        <v>0.01364559624467554</v>
+        <v>0.01545176039369811</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_31392557000149.xlsx
+++ b/output/XP_31392557000149.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP ADVISORY PORTFOLIO PRIVATE FI EM COTAS DE FI MULTIMERCADO CRÉDITO PRIVADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,216 +383,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43646</v>
       </c>
       <c r="B2">
-        <v>0.007752439999999972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43677</v>
       </c>
       <c r="B3">
-        <v>0.01083115999999995</v>
-      </c>
-      <c r="C3">
         <v>0.003055036016583523</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43708</v>
       </c>
       <c r="B4">
-        <v>0.01202067000000007</v>
-      </c>
-      <c r="C4">
         <v>0.001176764277824649</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43738</v>
       </c>
       <c r="B5">
-        <v>0.02511055999999989</v>
-      </c>
-      <c r="C5">
         <v>0.01293440972900273</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43769</v>
       </c>
       <c r="B6">
-        <v>0.04030539000000011</v>
-      </c>
-      <c r="C6">
         <v>0.01482262557123626</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43799</v>
       </c>
       <c r="B7">
-        <v>0.03936443999999995</v>
-      </c>
-      <c r="C7">
         <v>-0.0009044940159351755</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43830</v>
       </c>
       <c r="B8">
-        <v>0.06153734000000011</v>
-      </c>
-      <c r="C8">
         <v>0.02133313315972218</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43861</v>
       </c>
       <c r="B9">
-        <v>0.06962982000000006</v>
-      </c>
-      <c r="C9">
         <v>0.007623358778881872</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43890</v>
       </c>
       <c r="B10">
-        <v>0.05819550000000007</v>
-      </c>
-      <c r="C10">
         <v>-0.01068997870683897</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43921</v>
       </c>
       <c r="B11">
-        <v>-0.02362313999999999</v>
-      </c>
-      <c r="C11">
         <v>-0.07731902091815746</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43951</v>
       </c>
       <c r="B12">
-        <v>0.0133823500000001</v>
-      </c>
-      <c r="C12">
         <v>0.03790082653126392</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43982</v>
       </c>
       <c r="B13">
-        <v>0.04464655999999989</v>
-      </c>
-      <c r="C13">
         <v>0.03085134648338772</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>44012</v>
       </c>
       <c r="B14">
-        <v>0.07746480999999994</v>
-      </c>
-      <c r="C14">
         <v>0.03141564932736673</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>44043</v>
       </c>
       <c r="B15">
-        <v>0.1173271</v>
-      </c>
-      <c r="C15">
         <v>0.03699637299523517</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44074</v>
       </c>
       <c r="B16">
-        <v>0.12583017</v>
-      </c>
-      <c r="C16">
         <v>0.007610188636792081</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>44104</v>
       </c>
       <c r="B17">
-        <v>0.1114056299999999</v>
-      </c>
-      <c r="C17">
         <v>-0.01281235872369635</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>44135</v>
       </c>
       <c r="B18">
-        <v>0.10733014</v>
-      </c>
-      <c r="C18">
         <v>-0.003666969007526055</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>44165</v>
       </c>
       <c r="B19">
-        <v>0.12444034</v>
-      </c>
-      <c r="C19">
-        <v>0.01545176039369811</v>
+        <v>0.01197753002550805</v>
       </c>
     </row>
   </sheetData>
